--- a/config/covid-19/forms/contact/person-create.xlsx
+++ b/config/covid-19/forms/contact/person-create.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhjOQPjwk0aacEn40BzFiUKaA6FMA=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>type</t>
   </si>
@@ -113,7 +110,7 @@
     <t>default</t>
   </si>
   <si>
-    <t>begin group</t>
+    <t xml:space="preserve">begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -131,85 +128,85 @@
     <t>contact_id</t>
   </si>
   <si>
-    <t>Contact ID of the logged in user</t>
-  </si>
-  <si>
-    <t>Namba ya Usajilisho ya mtumiaji wa huduma hii</t>
-  </si>
-  <si>
-    <t>लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
-  </si>
-  <si>
-    <t>Identifiant du contact</t>
+    <t xml:space="preserve">Contact ID of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namba ya Usajilisho ya mtumiaji wa huduma hii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको सम्पर्क ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant du contact</t>
   </si>
   <si>
     <t>facility_id</t>
   </si>
   <si>
-    <t>Place ID of the logged in user</t>
-  </si>
-  <si>
-    <t>लॉग इन यूज़र के स्थान का ID</t>
-  </si>
-  <si>
-    <t>ID Tempat dari login user</t>
-  </si>
-  <si>
-    <t>Kitambulisho cha mahali cha mtumizi wa huduma hii</t>
-  </si>
-  <si>
-    <t>लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
-  </si>
-  <si>
-    <t>Identifiant du centre</t>
-  </si>
-  <si>
-    <t>Name of the logged in user</t>
-  </si>
-  <si>
-    <t>लॉग इन यूज़र का नाम</t>
-  </si>
-  <si>
-    <t>Nama dari login user</t>
-  </si>
-  <si>
-    <t>Jina ya mtumizi</t>
-  </si>
-  <si>
-    <t>लग इन गरेको प्रयोगकर्ताको नाम</t>
+    <t xml:space="preserve">Place ID of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लॉग इन यूज़र के स्थान का ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Tempat dari login user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitambulisho cha mahali cha mtumizi wa huduma hii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको स्थानको ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant du centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the logged in user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लॉग इन यूज़र का नाम</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama dari login user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jina ya mtumizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">लग इन गरेको प्रयोगकर्ताको नाम</t>
   </si>
   <si>
     <t>Nom</t>
   </si>
   <si>
-    <t>end group</t>
+    <t xml:space="preserve">end group</t>
   </si>
   <si>
     <t>init</t>
   </si>
   <si>
-    <t>Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types. Last part is now incorrect... as long as it is read only it could be a string of appearance db-object and work fine.</t>
+    <t xml:space="preserve">Cannot be inside the person group without having all fields saved to person. And needs separate db-objects because cannot have one that handles the different place types. Last part is now incorrect... as long as it is read only it could be a string of appearance db-object and work fine.</t>
   </si>
   <si>
     <t>parent_id</t>
   </si>
   <si>
-    <t>Belongs to</t>
-  </si>
-  <si>
-    <t>यह व्यक्ति इस जगह से जुड़ा है</t>
-  </si>
-  <si>
-    <t>Orang ini terhubung ke tempat ini</t>
-  </si>
-  <si>
-    <t>Ni wa</t>
-  </si>
-  <si>
-    <t>यो व्यक्ति यस ठाउँसँग सम्बन्धित छ</t>
-  </si>
-  <si>
-    <t>Associé avec</t>
+    <t xml:space="preserve">Belongs to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">यह व्यक्ति इस जगह से जुड़ा है</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orang ini terhubung ke tempat ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">यो व्यक्ति यस ठाउँसँग सम्बन्धित छ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associé avec</t>
   </si>
   <si>
     <t>db-object</t>
@@ -227,7 +224,7 @@
     <t>hidden</t>
   </si>
   <si>
-    <t>select_one place_type</t>
+    <t xml:space="preserve">select_one place_type</t>
   </si>
   <si>
     <t>type_selector</t>
@@ -251,31 +248,31 @@
     <t>parent</t>
   </si>
   <si>
-    <t>Parent ID</t>
-  </si>
-  <si>
-    <t>मूल ID</t>
-  </si>
-  <si>
-    <t>Asli ID</t>
-  </si>
-  <si>
-    <t>ID ya mzazi</t>
-  </si>
-  <si>
-    <t>identifiant du parent</t>
+    <t xml:space="preserve">Parent ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मूल ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asli ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID ya mzazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifiant du parent</t>
   </si>
   <si>
     <t>PARENT</t>
   </si>
   <si>
-    <t>Person type</t>
-  </si>
-  <si>
-    <t>व्यक्ति के प्रकार</t>
-  </si>
-  <si>
-    <t>Tipe Orang</t>
+    <t xml:space="preserve">Person type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">व्यक्ति के प्रकार</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipe Orang</t>
   </si>
   <si>
     <t>Jina</t>
@@ -287,7 +284,7 @@
     <t>first_name</t>
   </si>
   <si>
-    <t>First name</t>
+    <t xml:space="preserve">First name</t>
   </si>
   <si>
     <t>yes</t>
@@ -299,7 +296,7 @@
     <t xml:space="preserve">Last name </t>
   </si>
   <si>
-    <t>concat(${first_name}, ' ', ${last_name})</t>
+    <t xml:space="preserve">concat(${first_name}, ' ', ${last_name})</t>
   </si>
   <si>
     <t>date_of_birth</t>
@@ -329,13 +326,13 @@
     <t>not(selected(../dob_method,'approx'))</t>
   </si>
   <si>
-    <t>floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
-  </si>
-  <si>
-    <t>Date must be before today</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
+    <t xml:space="preserve">floor(decimal-date-time(.)) &lt;= floor(decimal-date-time(today()))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date must be before today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of birth</t>
   </si>
   <si>
     <t>note</t>
@@ -344,7 +341,7 @@
     <t>age_label</t>
   </si>
   <si>
-    <t>**Please enter date of birth**</t>
+    <t xml:space="preserve">**Please enter date of birth**</t>
   </si>
   <si>
     <t>selected(../dob_method,'approx')</t>
@@ -359,10 +356,10 @@
     <t>Years</t>
   </si>
   <si>
-    <t>. &gt;= 0 and . &lt;= 130</t>
-  </si>
-  <si>
-    <t>Age must be between 0 and 130</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt;= 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age must be between 0 and 130</t>
   </si>
   <si>
     <t>age_months</t>
@@ -371,13 +368,13 @@
     <t>Months</t>
   </si>
   <si>
-    <t>. &gt;= 0 and . &lt;= 11</t>
-  </si>
-  <si>
-    <t>Months must between 0 and 11</t>
-  </si>
-  <si>
-    <t>select_multiple select_dob_method</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt;= 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months must between 0 and 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple select_dob_method</t>
   </si>
   <si>
     <t>dob_method</t>
@@ -392,25 +389,25 @@
     <t>ephemeral_months</t>
   </si>
   <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%m") - ../age_months + 12, format-date-time(today(),"%m") - ../age_months)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%m") - coalesce(../age_months, 0) + 12, format-date-time(today(),"%m") - coalesce(../age_months, 0))</t>
   </si>
   <si>
     <t>ephemeral_years</t>
   </si>
   <si>
-    <t>if(format-date-time(today(),"%m") - ../age_months &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
+    <t xml:space="preserve">if(format-date-time(today(),"%m") - coalesce(../age_months, 0) &lt; 0, format-date-time(today(),"%Y") - ../age_years - 1, format-date-time(today(),"%Y") -../age_years)</t>
   </si>
   <si>
     <t>dob_approx</t>
   </si>
   <si>
-    <t>concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
+    <t xml:space="preserve">concat(string(${ephemeral_years}),'-',if(${ephemeral_months}&lt;10, concat('0',string(${ephemeral_months})), ${ephemeral_months}),'-',string(format-date-time(today(), "%d")))</t>
   </si>
   <si>
     <t>dob_raw</t>
   </si>
   <si>
-    <t>if(not(selected( ${dob_method},'approx')), 
+    <t xml:space="preserve">if(not(selected( ${dob_method},'approx')), 
 ${dob_calendar},
 ${dob_approx})</t>
   </si>
@@ -424,14 +421,14 @@
     <t>dob_debug</t>
   </si>
   <si>
-    <t>Months: ${ephemeral_months}
+    <t xml:space="preserve">Months: ${ephemeral_months}
 Year: ${ephemeral_years}
 DOB Approx: ${dob_approx}
 DOB Calendar: ${dob_calendar}
 DOB ISO: ${dob_iso}</t>
   </si>
   <si>
-    <t>select_one male_female</t>
+    <t xml:space="preserve">select_one male_female</t>
   </si>
   <si>
     <t>sex</t>
@@ -443,7 +440,7 @@
     <t>लिंग</t>
   </si>
   <si>
-    <t>Jenis kelamin</t>
+    <t xml:space="preserve">Jenis kelamin</t>
   </si>
   <si>
     <t>Jinsia</t>
@@ -464,55 +461,55 @@
     <t>phone</t>
   </si>
   <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
-    <t>Nambari ya simu</t>
-  </si>
-  <si>
-    <t>फोन नम्बर</t>
+    <t xml:space="preserve">Phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">फोन नंबर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomor Telepon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nambari ya simu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">फोन नम्बर</t>
   </si>
   <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t>Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
-  </si>
-  <si>
-    <t>कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +13125551211</t>
-  </si>
-  <si>
-    <t>Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +13125551211</t>
+    <t xml:space="preserve">Please enter a valid local number, or use the standard international format, which includes a plus sign (+) and country code. For example: +13125551211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">कृपया एक सही स्थानीय नंबर दर्ज करें, या मानक अंतरराष्ट्रीय प्रारूप का उपयोग करें, जिसमें एक प्लस साइन (+) और देश कोड शामिल है। उदाहरण के लिए: +13125551211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez entrer un numéro local valide ou utiliser le format international standard, qui comprend un signe plus (+) et le code du pays. Par exemple: +13125551211</t>
   </si>
   <si>
     <t>phone_alternate</t>
   </si>
   <si>
-    <t>Alternate phone number</t>
-  </si>
-  <si>
-    <t>अन्य फोन नंबर</t>
-  </si>
-  <si>
-    <t>Nomor Telepon Alternatif</t>
-  </si>
-  <si>
-    <t>nambari nyingine ya simu</t>
-  </si>
-  <si>
-    <t>अन्य फोन नम्बर</t>
-  </si>
-  <si>
-    <t>Téléphone alternatif</t>
-  </si>
-  <si>
-    <t>select_one roles</t>
+    <t xml:space="preserve">Alternate phone number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य फोन नंबर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomor Telepon Alternatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nambari nyingine ya simu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य फोन नम्बर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Téléphone alternatif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one roles</t>
   </si>
   <si>
     <t>role</t>
@@ -533,67 +530,67 @@
     <t>Rôle</t>
   </si>
   <si>
-    <t>Select the role that best suits this person</t>
-  </si>
-  <si>
-    <t>उस भूमिका का चयन करें जो इस व्यक्ति को सबसे अच्छा सूट करता है</t>
-  </si>
-  <si>
-    <t>Pilih peran yang paling cocok untuk orang ini</t>
-  </si>
-  <si>
-    <t>Chagua jukumu linachoambatana na huyu mtu</t>
-  </si>
-  <si>
-    <t>यस व्यक्तिका लागि उपयुक्त भूमिका छान्नुहोस्</t>
-  </si>
-  <si>
-    <t>Sélectionnez le rôle qui convient le mieux à cette personne</t>
+    <t xml:space="preserve">Select the role that best suits this person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">उस भूमिका का चयन करें जो इस व्यक्ति को सबसे अच्छा सूट करता है</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilih peran yang paling cocok untuk orang ini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chagua jukumu linachoambatana na huyu mtu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">यस व्यक्तिका लागि उपयुक्त भूमिका छान्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez le rôle qui convient le mieux à cette personne</t>
   </si>
   <si>
     <t>role_other</t>
   </si>
   <si>
-    <t>Specify other</t>
-  </si>
-  <si>
-    <t>अन्य का उल्‍लेख करें</t>
-  </si>
-  <si>
-    <t>Tentukan lainnya</t>
+    <t xml:space="preserve">Specify other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य का उल्‍लेख करें</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentukan lainnya</t>
   </si>
   <si>
     <t xml:space="preserve"> Jukumu lingine lelote</t>
   </si>
   <si>
-    <t>अन्य उल्लेख गर्नुहोस्</t>
-  </si>
-  <si>
-    <t>Autre rôle</t>
-  </si>
-  <si>
-    <t>selected( ${role},'other')</t>
+    <t xml:space="preserve">अन्य उल्लेख गर्नुहोस्</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre rôle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected( ${role},'other')</t>
   </si>
   <si>
     <t>external_id</t>
   </si>
   <si>
-    <t>External ID</t>
-  </si>
-  <si>
-    <t>बाहरी ID</t>
-  </si>
-  <si>
-    <t>Eksternal ID</t>
-  </si>
-  <si>
-    <t>ID ya nje</t>
-  </si>
-  <si>
-    <t>बाहिरी ID</t>
-  </si>
-  <si>
-    <t>Identifiant externe</t>
+    <t xml:space="preserve">External ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बाहरी ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksternal ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID ya nje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">बाहिरी ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifiant externe</t>
   </si>
   <si>
     <t>notes</t>
@@ -773,22 +770,22 @@
     <t>approx</t>
   </si>
   <si>
-    <t>Date of birth unknown</t>
+    <t xml:space="preserve">Date of birth unknown</t>
   </si>
   <si>
     <t xml:space="preserve">जन्म की तारीख का पता नहीं </t>
   </si>
   <si>
-    <t>Tanggal tidak diketahui lahir</t>
-  </si>
-  <si>
-    <t>Tarehe ya Kuzaliwa</t>
-  </si>
-  <si>
-    <t>जन्म मिती थाहा नभएको</t>
-  </si>
-  <si>
-    <t>Date de naissance inconnue</t>
+    <t xml:space="preserve">Tanggal tidak diketahui lahir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarehe ya Kuzaliwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जन्म मिती थाहा नभएको</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de naissance inconnue</t>
   </si>
   <si>
     <t>roles</t>
@@ -800,16 +797,16 @@
     <t>CHW</t>
   </si>
   <si>
-    <t>सामुदायिक स्वास्थ्यकर्मी</t>
+    <t xml:space="preserve">सामुदायिक स्वास्थ्यकर्मी</t>
   </si>
   <si>
     <t>Kader</t>
   </si>
   <si>
-    <t>Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविका</t>
+    <t xml:space="preserve">Mhudumu wa afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविका</t>
   </si>
   <si>
     <t>ASC</t>
@@ -818,22 +815,22 @@
     <t>chw_supervisor</t>
   </si>
   <si>
-    <t>CHW Supervisor</t>
-  </si>
-  <si>
-    <t>सामुदायिक स्वास्थ्यकर्मी के मैनेजर</t>
-  </si>
-  <si>
-    <t>Kader Pengawas</t>
-  </si>
-  <si>
-    <t>Mkuu wa wahudumu wa afya</t>
-  </si>
-  <si>
-    <t>महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
-  </si>
-  <si>
-    <t>Superviseur ASC</t>
+    <t xml:space="preserve">CHW Supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सामुदायिक स्वास्थ्यकर्मी के मैनेजर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kader Pengawas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mkuu wa wahudumu wa afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">महिला स्वास्थ्य स्वयम् सेविकाको सुपरभाइजर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
     <t>patient</t>
@@ -878,7 +875,7 @@
     <t>district_hospital</t>
   </si>
   <si>
-    <t>Health Facility</t>
+    <t xml:space="preserve">Health Facility</t>
   </si>
   <si>
     <t>ज़िला</t>
@@ -893,7 +890,7 @@
     <t>जिल्ला</t>
   </si>
   <si>
-    <t>Hôpital de District</t>
+    <t xml:space="preserve">Hôpital de District</t>
   </si>
   <si>
     <t>health_center</t>
@@ -902,19 +899,19 @@
     <t>Area</t>
   </si>
   <si>
-    <t>स्वास्थ्य केंद्र</t>
-  </si>
-  <si>
-    <t>Fasilitas Kesehatan</t>
-  </si>
-  <si>
-    <t>Kituo cha afya</t>
-  </si>
-  <si>
-    <t>स्वास्थ्य केन्द्र</t>
-  </si>
-  <si>
-    <t>Centre de center</t>
+    <t xml:space="preserve">स्वास्थ्य केंद्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasilitas Kesehatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kituo cha afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्वास्थ्य केन्द्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre de center</t>
   </si>
   <si>
     <t>clinic</t>
@@ -953,7 +950,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>New Person</t>
+    <t xml:space="preserve">New Person</t>
   </si>
   <si>
     <t>contact:person:create</t>
@@ -968,38 +965,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1007,7 +1004,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1071,103 +1068,378 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="3" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1224,7 +1496,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1250,7 +1522,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1302,16 +1574,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1327,7 +1611,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1357,48 +1641,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.43"/>
-    <col customWidth="1" min="2" max="2" width="19.71"/>
-    <col customWidth="1" min="3" max="3" width="44.71"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="27.29"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="29.14"/>
+    <col customWidth="1" min="2" max="2" width="19.710000000000001"/>
+    <col customWidth="1" min="3" max="3" width="44.710000000000001"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="27.289999999999999"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="29.140000000000001"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="16.57"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="33.86"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="12.86"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="13.71"/>
-    <col customWidth="1" min="10" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="14.29"/>
-    <col customWidth="1" min="12" max="13" width="10.71"/>
-    <col customWidth="1" min="14" max="14" width="8.71"/>
-    <col customWidth="1" min="15" max="16" width="18.14"/>
-    <col customWidth="1" min="17" max="17" width="23.29"/>
-    <col customWidth="1" min="18" max="20" width="18.14"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="33.859999999999999"/>
+    <col customWidth="1" hidden="1" min="8" max="8" width="12.859999999999999"/>
+    <col customWidth="1" hidden="1" min="9" max="9" width="13.710000000000001"/>
+    <col customWidth="1" min="10" max="10" width="8.7100000000000009"/>
+    <col customWidth="1" min="11" max="11" width="14.289999999999999"/>
+    <col customWidth="1" min="12" max="13" width="10.710000000000001"/>
+    <col customWidth="1" min="14" max="14" width="8.7100000000000009"/>
+    <col customWidth="1" min="15" max="16" width="18.140000000000001"/>
+    <col customWidth="1" min="17" max="17" width="23.289999999999999"/>
+    <col customWidth="1" min="18" max="20" width="18.140000000000001"/>
     <col customWidth="1" min="21" max="21" width="22.57"/>
-    <col customWidth="1" min="22" max="22" width="36.71"/>
-    <col customWidth="1" min="23" max="23" width="8.71"/>
-    <col customWidth="1" min="24" max="24" width="34.86"/>
-    <col customWidth="1" min="25" max="25" width="19.86"/>
-    <col customWidth="1" min="26" max="26" width="13.86"/>
-    <col customWidth="1" min="27" max="44" width="8.71"/>
+    <col customWidth="1" min="22" max="22" width="36.710000000000001"/>
+    <col customWidth="1" min="23" max="23" width="8.7100000000000009"/>
+    <col customWidth="1" min="24" max="24" width="34.859999999999999"/>
+    <col customWidth="1" min="25" max="25" width="19.859999999999999"/>
+    <col customWidth="1" min="26" max="26" width="13.859999999999999"/>
+    <col customWidth="1" min="27" max="44" width="8.7100000000000009"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -5351,35 +5634,37 @@
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.14"/>
-    <col customWidth="1" min="2" max="2" width="16.29"/>
-    <col customWidth="1" min="3" max="3" width="28.71"/>
+    <col customWidth="1" min="1" max="1" width="21.140000000000001"/>
+    <col customWidth="1" min="2" max="2" width="16.289999999999999"/>
+    <col customWidth="1" min="3" max="3" width="28.710000000000001"/>
     <col customWidth="1" min="4" max="4" width="29.57"/>
-    <col customWidth="1" min="5" max="5" width="26.14"/>
+    <col customWidth="1" min="5" max="5" width="26.140000000000001"/>
     <col customWidth="1" min="6" max="6" width="16.57"/>
-    <col customWidth="1" min="7" max="7" width="36.71"/>
-    <col customWidth="1" min="8" max="8" width="12.86"/>
-    <col customWidth="1" min="9" max="9" width="13.71"/>
+    <col customWidth="1" min="7" max="7" width="36.710000000000001"/>
+    <col customWidth="1" min="8" max="8" width="12.859999999999999"/>
+    <col customWidth="1" min="9" max="9" width="13.710000000000001"/>
     <col customWidth="1" min="10" max="13" width="7.71"/>
-    <col customWidth="1" min="14" max="26" width="15.14"/>
+    <col customWidth="1" min="14" max="26" width="15.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7025,28 +7310,30 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="7.71"/>
     <col customWidth="1" min="3" max="3" width="20.43"/>
     <col customWidth="1" min="4" max="15" width="7.71"/>
-    <col customWidth="1" min="16" max="26" width="15.14"/>
+    <col customWidth="1" min="16" max="26" width="15.140000000000001"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -7097,8 +7384,8 @@
         <v>310</v>
       </c>
       <c r="C2" s="42" t="str">
-        <f>TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2021-08-17_21-22</v>
+        <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v xml:space="preserve">2022-02-25 15-17</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="35" t="s">
@@ -14013,9 +14300,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>